--- a/data/xlsx/03102019.xlsx
+++ b/data/xlsx/03102019.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B57D4315-2E9C-4846-AC79-2FEF9F22ADC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD68F6-5CC5-084A-AAF6-DD8B6F9486A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13240" yWindow="1040" windowWidth="14860" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -251,7 +259,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -270,6 +281,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -294,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -680,7 +698,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>43534</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -706,7 +724,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>43534</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -732,7 +750,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>43534</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -758,7 +776,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>43534</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -784,7 +802,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>43534</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -810,7 +828,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>43534</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -836,7 +854,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>43534</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -862,7 +880,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>43534</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -888,7 +906,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>43534</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -914,7 +932,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>43534</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -940,7 +958,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>43534</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -966,7 +984,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>43534</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -984,7 +1002,7 @@
       <c r="F13">
         <v>37.868552999999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>-122.261796</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -992,7 +1010,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>43534</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1018,7 +1036,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>43534</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1044,7 +1062,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>43534</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1070,7 +1088,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>43534</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1096,7 +1114,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>43534</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1120,6 +1138,9 @@
       <c r="H18" s="2" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="22" spans="1:8" ht="20">
+      <c r="A22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
